--- a/biology/Zoologie/Pachycondyla_dubia/Pachycondyla_dubia.xlsx
+++ b/biology/Zoologie/Pachycondyla_dubia/Pachycondyla_dubia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachyponera dubia
 Pachycondyla dubia est une espèce fossile de fourmis de la sous-famille des Ponerinae dans la tribu des Ponerini, dans le genre Pachycondyla.
@@ -512,14 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Pachycondyla dubia est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) sous le protonyme Brachyponera dubia[1],[2]. 
-Fossiles
-Les spécimens holotype R 749 et son associé R 2005 (empreinte et contre empreinte) ♀ viennent du musée de Bâle. 
-Le muséum national d'histoire naturelle de Paris a aussi un paratype MNHN.F.B24401 (ancien numéro = Am 20) venant d'Aix-en-Provence[3].
-Étymologie
-L'épithète spécifique dubia signifie en latin « douteux ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Pachycondyla dubia est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) sous le protonyme Brachyponera dubia,. 
 </t>
         </is>
       </c>
@@ -545,19 +554,171 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les spécimens holotype R 749 et son associé R 2005 (empreinte et contre empreinte) ♀ viennent du musée de Bâle. 
+Le muséum national d'histoire naturelle de Paris a aussi un paratype MNHN.F.B24401 (ancien numéro = Am 20) venant d'Aix-en-Provence.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pachycondyla_dubia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pachycondyla_dubia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique dubia signifie en latin « douteux ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pachycondyla_dubia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pachycondyla_dubia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald de 1937[1] : L'holotype femelle est un « insecte brun-noirâtre, les deux premiers segments abdominaux et les ailes brun-clair. »[1]. 
-« Tête assez grosse, yeux moyennement développés, ocelles non visibles ; antennes mal conservées; scape peu distinct du funicule. Thorax assez gros ; pronotum court ; mésonotum formant la partie dorsale avant du thorax; scutellum renflé ; métanotum déclive. Pétiole court, formé d'un article peu renflé, en forme d'écusson. Abdomen gros et de forme ovoïde; il débute par un segment triangulaire dont les bords postérieurs débordent sur le suivant ; 2e segment subcylendrique ; 3e tronconique; le dernier est arrondi en arrière. Pattes fortes. ailes antérieures bien conservées, dépassant l'extrémité de l'abdomen ; stigma étroit et allongé; 1 cellule radiale fermée; 2 cellules cubitales fermées et une 3e cellule cubitale ouverte; 1 cellule discoïdale de forme sublosangique. Ailes postérieures mal conservées. »[1].
-Dimensions
-La longueur totale est de 11 mm, la tête a une longueur 1,25 mm, le thorax a une longueur 4,75 mm et une largeur de 2,75 mm, l'abdomen a une longueur 5 mm et une largeur de 3 mm, l'aile antérieure a une longueur 8 mm et une largeur de 2,5 mm[1]. 
-Affinités
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald de 1937 : L'holotype femelle est un « insecte brun-noirâtre, les deux premiers segments abdominaux et les ailes brun-clair. ». 
+« Tête assez grosse, yeux moyennement développés, ocelles non visibles ; antennes mal conservées; scape peu distinct du funicule. Thorax assez gros ; pronotum court ; mésonotum formant la partie dorsale avant du thorax; scutellum renflé ; métanotum déclive. Pétiole court, formé d'un article peu renflé, en forme d'écusson. Abdomen gros et de forme ovoïde; il débute par un segment triangulaire dont les bords postérieurs débordent sur le suivant ; 2e segment subcylendrique ; 3e tronconique; le dernier est arrondi en arrière. Pattes fortes. ailes antérieures bien conservées, dépassant l'extrémité de l'abdomen ; stigma étroit et allongé; 1 cellule radiale fermée; 2 cellules cubitales fermées et une 3e cellule cubitale ouverte; 1 cellule discoïdale de forme sublosangique. Ailes postérieures mal conservées. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pachycondyla_dubia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pachycondyla_dubia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 11 mm, la tête a une longueur 1,25 mm, le thorax a une longueur 4,75 mm et une largeur de 2,75 mm, l'abdomen a une longueur 5 mm et une largeur de 3 mm, l'aile antérieure a une longueur 8 mm et une largeur de 2,5 mm. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pachycondyla_dubia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pachycondyla_dubia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 « La présence d'un pétiole à un segment et la nervation de l'aile rangent cet échantillon parmi les Ponerinae. Il y a un léger étranglement entre les deux premiers segments de l'abdomen. Les mandibules sont rudimentaires et le pétiole aplati en lame comme chez les ♂ de Brachyponera. mais les Brachyponera actuels ne dépassent pas 6 mm. Ils habitent les régions éthiopiennes et indo-malaises.
-Rappelle Poneropsis morio Heer de Radoboj, mais a l'abdomen de forme plus allongée. »[1].
+Rappelle Poneropsis morio Heer de Radoboj, mais a l'abdomen de forme plus allongée. ».
 </t>
         </is>
       </c>
